--- a/application/views/rpt/ru/doc/zakaz.xlsx
+++ b/application/views/rpt/ru/doc/zakaz.xlsx
@@ -1,25 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp\www\isell3\application\views\rpt\ru\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Заказ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$5:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Заказ!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -29,9 +22,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>_____________________</t>
-  </si>
-  <si>
     <t>Артикул</t>
   </si>
   <si>
@@ -92,21 +82,6 @@
     <t>Кол-во</t>
   </si>
   <si>
-    <t>Цена без НДС</t>
-  </si>
-  <si>
-    <t>Сумма без НДС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всего без НДС: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">НДС: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всего с НДС: </t>
-  </si>
-  <si>
     <t>Всего на сумму:</t>
   </si>
   <si>
@@ -120,6 +95,24 @@
   </si>
   <si>
     <t>Получатель</t>
+  </si>
+  <si>
+    <t>Цена c НДС</t>
+  </si>
+  <si>
+    <t>Сумма c НДС</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Всего к оплате</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В том числе НДС </t>
+  </si>
+  <si>
+    <t>__________________________</t>
   </si>
 </sst>
 </file>
@@ -269,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -294,14 +287,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -399,7 +395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,7 +430,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -646,7 +642,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -656,163 +652,163 @@
     <col min="3" max="3" width="51" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="A1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>23</v>
+      <c r="F5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="10" t="s">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="10" t="s">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="11"/>
+      <c r="A11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
@@ -820,40 +816,40 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="15"/>
+      <c r="A13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -877,28 +873,4 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/application/views/rpt/ru/doc/zakaz.xlsx
+++ b/application/views/rpt/ru/doc/zakaz.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iSell\www\isell\application\views\rpt\ru\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Заказ" sheetId="1" r:id="rId1"/>
+    <sheet name="Заказ " sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Заказ!$5:$5</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -118,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -300,6 +302,15 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -326,18 +337,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -353,9 +355,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -393,9 +395,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,7 +432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,7 +467,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -641,71 +643,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -728,7 +729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -751,126 +752,125 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="10"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="10"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="16" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="F13:G13"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
   </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/application/views/rpt/ru/doc/zakaz.xlsx
+++ b/application/views/rpt/ru/doc/zakaz.xlsx
@@ -48,12 +48,6 @@
     <t>{$v-&gt;rows[]-&gt;product_quantity}</t>
   </si>
   <si>
-    <t>{$v-&gt;rows[]-&gt;product_price}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;product_sum}</t>
-  </si>
-  <si>
     <t>{$v-&gt;footer-&gt;vatless}</t>
   </si>
   <si>
@@ -115,6 +109,12 @@
   </si>
   <si>
     <t>__________________________</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;product_price_total}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;product_sum_total}</t>
   </si>
 </sst>
 </file>
@@ -301,41 +301,41 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,7 +644,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,52 +659,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14" t="s">
+      <c r="A2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="A3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="A4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -714,19 +714,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -745,70 +745,70 @@
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="12" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="13" t="s">
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="10"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="A11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="10"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -817,43 +817,49 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="19"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="A13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="19"/>
+      <c r="F13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="A16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:G3"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="A16:G16"/>
@@ -864,13 +870,8 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/application/views/rpt/ru/doc/zakaz.xlsx
+++ b/application/views/rpt/ru/doc/zakaz.xlsx
@@ -178,7 +178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFB6B6B6"/>
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
@@ -254,36 +254,6 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -309,6 +279,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,6 +392,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFB6B6B6"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -691,65 +694,65 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="39.44140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
@@ -775,148 +778,148 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="16" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="16" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="16" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="2" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A3:G3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="99" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>